--- a/public/Generated/report.xlsx
+++ b/public/Generated/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="81">
   <si>
     <t>Submitted Date</t>
   </si>
@@ -34,222 +34,117 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Suman HK</t>
+    <t>Rabishankar Rath</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Cleared</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Suryakanta Murudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajesh Kumar Sahoo	</t>
+  </si>
+  <si>
+    <t>Chiranjit Sahoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoorva M	</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>Cleared</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Mayank Jain</t>
+    <t>Sukadev Majhi</t>
+  </si>
+  <si>
+    <t>Bibhuti Bhusan Lenka</t>
+  </si>
+  <si>
+    <t>Switching of Tab's detected.</t>
+  </si>
+  <si>
+    <t>Priyabrata Behera</t>
+  </si>
+  <si>
+    <t>Atul Prasad Samantaray</t>
+  </si>
+  <si>
+    <t>Biswa Ranjan Behera</t>
+  </si>
+  <si>
+    <t>Sandeep Maharana</t>
+  </si>
+  <si>
+    <t>Kahnu Charan Mohanty</t>
+  </si>
+  <si>
+    <t>Pravakara Singh</t>
+  </si>
+  <si>
+    <t>Pabitra Nanda</t>
+  </si>
+  <si>
+    <t>Linu Padhan</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>Sudhansu Prasad routray</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Bibhuti Rout</t>
-  </si>
-  <si>
-    <t>Bijayananda Behara</t>
-  </si>
-  <si>
-    <t>Smitaranjan Samantaray</t>
-  </si>
-  <si>
-    <t>Adarsh Kumar</t>
+    <t>Sanigdha Mohanty</t>
+  </si>
+  <si>
+    <t>Damodar Yarrapotu</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Not Cleared</t>
+  </si>
+  <si>
+    <t>Chinmayee Priyadarsini Khatua</t>
+  </si>
+  <si>
+    <t>Kaleram Durga Prasad Baskey</t>
+  </si>
+  <si>
+    <t>Mohammed Takir Khan</t>
+  </si>
+  <si>
+    <t>Saikumar Gaddam</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Pavani Kolukula</t>
+  </si>
+  <si>
+    <t>Bharath R</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Mahesh Bopparapu</t>
   </si>
   <si>
     <t>93</t>
   </si>
   <si>
-    <t>Not Cleared</t>
-  </si>
-  <si>
-    <t>Anurag Padhy</t>
-  </si>
-  <si>
-    <t>Khirodra Behera</t>
-  </si>
-  <si>
-    <t>Switching of Tab's detected.</t>
-  </si>
-  <si>
-    <t>Telagamsetti Srihari Chaitanya</t>
+    <t>Rakesh Shantinath Chavare</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>Rajesh Tangellamudi</t>
-  </si>
-  <si>
-    <t>Satyajeet behera</t>
-  </si>
-  <si>
-    <t>Abinash Garnaik</t>
-  </si>
-  <si>
-    <t>Sri Lakshmi Prameela Mogali</t>
-  </si>
-  <si>
-    <t>Saktisuman Pradhan</t>
-  </si>
-  <si>
-    <t>Nallabothula Dilli Prasad</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Regi Priyanka C</t>
-  </si>
-  <si>
-    <t>Pavan kumar Anugula</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Akhil Odugu</t>
-  </si>
-  <si>
-    <t>Sumit Kumar Sahani</t>
-  </si>
-  <si>
-    <t>Shyam Sundar</t>
-  </si>
-  <si>
-    <t>Pilly Sujay</t>
-  </si>
-  <si>
-    <t>Happy Prasad Nath</t>
-  </si>
-  <si>
-    <t>Sivakumar Thupakula</t>
-  </si>
-  <si>
-    <t>Vutukuri Leela Sravani</t>
-  </si>
-  <si>
-    <t>Mavuri Jayanthi</t>
-  </si>
-  <si>
-    <t>Mangaraju Vasundhara</t>
-  </si>
-  <si>
-    <t>Velamala Anusha</t>
-  </si>
-  <si>
-    <t>Soumyaranjan Sethy</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Ajitesh Pattanayak</t>
-  </si>
-  <si>
-    <t>Avijit Barick</t>
-  </si>
-  <si>
-    <t>Production Testing</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Rabishankar Rath</t>
-  </si>
-  <si>
-    <t>Suryakanta Murudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajesh Kumar Sahoo	</t>
-  </si>
-  <si>
-    <t>Chiranjit Sahoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoorva M	</t>
-  </si>
-  <si>
-    <t>Sukadev Majhi</t>
-  </si>
-  <si>
-    <t>Bibhuti Bhusan Lenka</t>
-  </si>
-  <si>
-    <t>Priyabrata Behera</t>
-  </si>
-  <si>
-    <t>Atul Prasad Samantaray</t>
-  </si>
-  <si>
-    <t>Biswa Ranjan Behera</t>
-  </si>
-  <si>
-    <t>Sandeep Maharana</t>
-  </si>
-  <si>
-    <t>Kahnu Charan Mohanty</t>
-  </si>
-  <si>
-    <t>Pravakara Singh</t>
-  </si>
-  <si>
-    <t>Pabitra Nanda</t>
-  </si>
-  <si>
-    <t>Linu Padhan</t>
-  </si>
-  <si>
-    <t>Sanigdha Mohanty</t>
-  </si>
-  <si>
-    <t>Damodar Yarrapotu</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Chinmayee Priyadarsini Khatua</t>
-  </si>
-  <si>
-    <t>Kaleram Durga Prasad Baskey</t>
-  </si>
-  <si>
-    <t>Mohammed Takir Khan</t>
-  </si>
-  <si>
-    <t>Saikumar Gaddam</t>
-  </si>
-  <si>
-    <t>Pavani Kolukula</t>
-  </si>
-  <si>
-    <t>Bharath R</t>
-  </si>
-  <si>
-    <t>Lokesh Akurathi</t>
-  </si>
-  <si>
-    <t>Mahesh Bopparapu</t>
-  </si>
-  <si>
-    <t>Rakesh Shantinath Chavare</t>
-  </si>
-  <si>
     <t>Kamal Kumar Samal</t>
   </si>
   <si>
@@ -293,9 +188,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>Gagan Kumar Behura</t>
   </si>
   <si>
     <t>Jagadish Prasad Dash</t>
@@ -739,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G64"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -775,16 +667,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -798,19 +690,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -821,10 +713,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>39</v>
@@ -833,7 +725,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -844,10 +736,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>39</v>
@@ -856,7 +748,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -867,19 +759,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -890,19 +782,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -913,33 +805,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>39</v>
@@ -948,73 +840,73 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1023,24 +915,24 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1051,10 +943,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.21335648149</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>39</v>
@@ -1063,27 +955,27 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1092,24 +984,24 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1120,85 +1012,85 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1212,42 +1104,42 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
         <v>38</v>
       </c>
-      <c r="C22">
-        <v>40</v>
-      </c>
       <c r="D22">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1258,22 +1150,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1281,19 +1173,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1304,22 +1196,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1327,65 +1219,65 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
         <v>43</v>
       </c>
-      <c r="C27">
-        <v>39</v>
-      </c>
-      <c r="D27">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1396,16 +1288,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1414,15 +1306,15 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>39</v>
@@ -1431,76 +1323,76 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1511,10 +1403,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45149.35170138889</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>39</v>
@@ -1523,7 +1415,7 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1534,19 +1426,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45152.19390046297</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1557,10 +1449,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45152.19390046297</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>39</v>
@@ -1569,27 +1461,27 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45152.19390046297</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1603,22 +1495,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45153.07908564815</v>
+        <v>45180.794432870374</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1626,10 +1518,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45180.21335648149</v>
+        <v>45181.875497685185</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>39</v>
@@ -1638,7 +1530,7 @@
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1649,10 +1541,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45180.21335648149</v>
+        <v>45181.875497685185</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1661,7 +1553,7 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1672,10 +1564,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45180.21335648149</v>
+        <v>45187.57418981481</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>39</v>
@@ -1684,7 +1576,7 @@
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1695,39 +1587,39 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1741,10 +1633,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>39</v>
@@ -1753,21 +1645,21 @@
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>39</v>
@@ -1776,21 +1668,21 @@
         <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>39</v>
@@ -1799,30 +1691,30 @@
         <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D47">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1833,19 +1725,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1856,10 +1748,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>39</v>
@@ -1868,30 +1760,30 @@
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1902,10 +1794,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45180.21335648149</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>39</v>
@@ -1914,53 +1806,53 @@
         <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45180.794432870374</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45180.794432870374</v>
+        <v>45191.019641203704</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C53">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1971,65 +1863,65 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D56">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -2040,19 +1932,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C57">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -2063,42 +1955,42 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C58">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C59">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D59">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -2109,22 +2001,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C60">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
         <v>10</v>
@@ -2132,19 +2024,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C61">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D61">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -2155,22 +2047,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C62">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G62" t="s">
         <v>10</v>
@@ -2178,19 +2070,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C63">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -2201,921 +2093,24 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45180.794432870374</v>
+        <v>45193.87909722222</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C64">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D64">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65">
-        <v>31</v>
-      </c>
-      <c r="D65">
-        <v>31</v>
-      </c>
-      <c r="E65" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66">
-        <v>38</v>
-      </c>
-      <c r="D66">
-        <v>38</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67">
-        <v>39</v>
-      </c>
-      <c r="D67">
-        <v>39</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68">
-        <v>39</v>
-      </c>
-      <c r="D68">
-        <v>39</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69">
-        <v>39</v>
-      </c>
-      <c r="D69">
-        <v>39</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70">
-        <v>39</v>
-      </c>
-      <c r="D70">
-        <v>39</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71">
-        <v>39</v>
-      </c>
-      <c r="D71">
-        <v>39</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72">
-        <v>39</v>
-      </c>
-      <c r="D72">
-        <v>39</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73">
-        <v>39</v>
-      </c>
-      <c r="D73">
-        <v>39</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74">
-        <v>39</v>
-      </c>
-      <c r="D74">
-        <v>39</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75">
-        <v>39</v>
-      </c>
-      <c r="D75">
-        <v>39</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>45180.794432870374</v>
-      </c>
-      <c r="B76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76">
-        <v>39</v>
-      </c>
-      <c r="D76">
-        <v>39</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>45181.875497685185</v>
-      </c>
-      <c r="B77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77">
-        <v>39</v>
-      </c>
-      <c r="D77">
-        <v>39</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>45181.875497685185</v>
-      </c>
-      <c r="B78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78">
-        <v>39</v>
-      </c>
-      <c r="D78">
-        <v>39</v>
-      </c>
-      <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>45187.57418981481</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79">
-        <v>39</v>
-      </c>
-      <c r="D79">
-        <v>39</v>
-      </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>93</v>
-      </c>
-      <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B81" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81">
-        <v>39</v>
-      </c>
-      <c r="D81">
-        <v>39</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82">
-        <v>39</v>
-      </c>
-      <c r="D82">
-        <v>39</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B83" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83">
-        <v>39</v>
-      </c>
-      <c r="D83">
-        <v>39</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B84" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84">
-        <v>39</v>
-      </c>
-      <c r="D84">
-        <v>39</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85">
-        <v>39</v>
-      </c>
-      <c r="D85">
-        <v>39</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B86" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86">
-        <v>40</v>
-      </c>
-      <c r="D86">
-        <v>40</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87">
-        <v>40</v>
-      </c>
-      <c r="D87">
-        <v>40</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B88" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88">
-        <v>39</v>
-      </c>
-      <c r="D88">
-        <v>39</v>
-      </c>
-      <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89">
-        <v>38</v>
-      </c>
-      <c r="D89">
-        <v>38</v>
-      </c>
-      <c r="E89" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B90" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90">
-        <v>39</v>
-      </c>
-      <c r="D90">
-        <v>39</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B91" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91">
-        <v>38</v>
-      </c>
-      <c r="D91">
-        <v>38</v>
-      </c>
-      <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>45191.019641203704</v>
-      </c>
-      <c r="B92" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92">
-        <v>40</v>
-      </c>
-      <c r="D92">
-        <v>40</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B93" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93">
-        <v>13</v>
-      </c>
-      <c r="D93">
-        <v>13</v>
-      </c>
-      <c r="E93" t="s">
-        <v>106</v>
-      </c>
-      <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B94" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94">
-        <v>40</v>
-      </c>
-      <c r="D94">
-        <v>40</v>
-      </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B95" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95">
-        <v>40</v>
-      </c>
-      <c r="D95">
-        <v>40</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B96" t="s">
-        <v>110</v>
-      </c>
-      <c r="C96">
-        <v>40</v>
-      </c>
-      <c r="D96">
-        <v>40</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97">
-        <v>39</v>
-      </c>
-      <c r="D97">
-        <v>39</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B98" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98">
-        <v>40</v>
-      </c>
-      <c r="D98">
-        <v>40</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B99" t="s">
-        <v>113</v>
-      </c>
-      <c r="C99">
-        <v>40</v>
-      </c>
-      <c r="D99">
-        <v>40</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B100" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100">
-        <v>40</v>
-      </c>
-      <c r="D100">
-        <v>40</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B101" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101">
-        <v>40</v>
-      </c>
-      <c r="D101">
-        <v>40</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102">
-        <v>39</v>
-      </c>
-      <c r="D102">
-        <v>39</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>45193.87909722222</v>
-      </c>
-      <c r="B103" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103">
-        <v>40</v>
-      </c>
-      <c r="D103">
-        <v>40</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" t="s">
         <v>10</v>
       </c>
     </row>

--- a/public/Generated/report.xlsx
+++ b/public/Generated/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Submitted Date</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Section1</t>
   </si>
   <si>
-    <t>Section2</t>
-  </si>
-  <si>
     <t>Secured Marks</t>
   </si>
   <si>
@@ -37,7 +34,52 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Lokesh Akurathi</t>
+    <t>Bhakata Ram Suna</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Not Cleared</t>
+  </si>
+  <si>
+    <t>Auto Submitted Assessment (Moved Outside the assessment boundary).</t>
+  </si>
+  <si>
+    <t>Swati Swarupa Rajguru</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Sanigdha Mohanty</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Satyajeet behera</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Switching of Tab's detected.</t>
+  </si>
+  <si>
+    <t>Smitaranjan Samantaray</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Soumyaranjan Sethy</t>
   </si>
   <si>
     <t>100</t>
@@ -46,7 +88,28 @@
     <t>Cleared</t>
   </si>
   <si>
-    <t>Switching of Tab's detected.</t>
+    <t>Jagadish Prasad Dash</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Gagan Kumar Behura</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Time Out Auto Submitting the Assessment.</t>
+  </si>
+  <si>
+    <t>Kollu Nagarjuna</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>
@@ -424,18 +487,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="4" width="10" customWidth="1"/>
-    <col min="5" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,25 +520,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45258.282905092594</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -483,8 +543,235 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45330.49493055556</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
